--- a/2022/Realme/MARCH/22.03.2022/realme Bank Statement March-20222.xlsx
+++ b/2022/Realme/MARCH/22.03.2022/realme Bank Statement March-20222.xlsx
@@ -2693,6 +2693,18 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2720,12 +2732,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2736,12 +2742,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4313,67 +4313,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="273" t="s">
+      <c r="A1" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
+      <c r="H1" s="277"/>
+      <c r="I1" s="277"/>
+      <c r="J1" s="277"/>
+      <c r="K1" s="277"/>
+      <c r="L1" s="277"/>
+      <c r="M1" s="277"/>
+      <c r="N1" s="277"/>
+      <c r="O1" s="277"/>
+      <c r="P1" s="277"/>
+      <c r="Q1" s="277"/>
     </row>
     <row r="2" spans="1:24" s="87" customFormat="1" ht="18">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="278" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="274"/>
-      <c r="C2" s="274"/>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="274"/>
-      <c r="H2" s="274"/>
-      <c r="I2" s="274"/>
-      <c r="J2" s="274"/>
-      <c r="K2" s="274"/>
-      <c r="L2" s="274"/>
-      <c r="M2" s="274"/>
-      <c r="N2" s="274"/>
-      <c r="O2" s="274"/>
-      <c r="P2" s="274"/>
-      <c r="Q2" s="274"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="278"/>
     </row>
     <row r="3" spans="1:24" s="88" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="275" t="s">
+      <c r="A3" s="279" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="276"/>
-      <c r="C3" s="276"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="276"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="276"/>
-      <c r="K3" s="276"/>
-      <c r="L3" s="276"/>
-      <c r="M3" s="276"/>
-      <c r="N3" s="276"/>
-      <c r="O3" s="276"/>
-      <c r="P3" s="276"/>
-      <c r="Q3" s="277"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="280"/>
+      <c r="H3" s="280"/>
+      <c r="I3" s="280"/>
+      <c r="J3" s="280"/>
+      <c r="K3" s="280"/>
+      <c r="L3" s="280"/>
+      <c r="M3" s="280"/>
+      <c r="N3" s="280"/>
+      <c r="O3" s="280"/>
+      <c r="P3" s="280"/>
+      <c r="Q3" s="281"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4382,52 +4382,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="90" customFormat="1">
-      <c r="A4" s="278" t="s">
+      <c r="A4" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="280" t="s">
+      <c r="B4" s="284" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="282" t="s">
+      <c r="C4" s="273" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="282" t="s">
+      <c r="D4" s="273" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="282" t="s">
+      <c r="E4" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="282" t="s">
+      <c r="F4" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="282" t="s">
+      <c r="G4" s="273" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="282" t="s">
+      <c r="H4" s="273" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="282" t="s">
+      <c r="I4" s="273" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="282" t="s">
+      <c r="J4" s="273" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="282" t="s">
+      <c r="K4" s="273" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="282" t="s">
+      <c r="L4" s="273" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="282" t="s">
+      <c r="M4" s="273" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="288" t="s">
+      <c r="N4" s="275" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="286" t="s">
+      <c r="O4" s="288" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="284" t="s">
+      <c r="P4" s="286" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="89" t="s">
@@ -4440,22 +4440,22 @@
       <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:24" s="90" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="279"/>
-      <c r="B5" s="281"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="283"/>
-      <c r="H5" s="283"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="283"/>
-      <c r="K5" s="283"/>
-      <c r="L5" s="283"/>
-      <c r="M5" s="283"/>
-      <c r="N5" s="289"/>
-      <c r="O5" s="287"/>
-      <c r="P5" s="285"/>
+      <c r="A5" s="283"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="274"/>
+      <c r="G5" s="274"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="274"/>
+      <c r="J5" s="274"/>
+      <c r="K5" s="274"/>
+      <c r="L5" s="274"/>
+      <c r="M5" s="274"/>
+      <c r="N5" s="276"/>
+      <c r="O5" s="289"/>
+      <c r="P5" s="287"/>
       <c r="Q5" s="94" t="s">
         <v>36</v>
       </c>
@@ -7515,6 +7515,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7531,9 +7534,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16699,8 +16699,8 @@
   </sheetPr>
   <dimension ref="A1:AC218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16828,7 +16828,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="182">
-        <v>9070390</v>
+        <v>9107970</v>
       </c>
       <c r="F5" s="188"/>
       <c r="G5" s="268">
@@ -16899,7 +16899,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="183">
-        <v>277814.40000000037</v>
+        <v>240234.40000000037</v>
       </c>
       <c r="F7" s="188"/>
       <c r="H7" s="29"/>
